--- a/data/trans_camb/P36B14_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,69</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,45; 7,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,27; -2,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,35; 0,18</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,11%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,41; 12,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,16; -2,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,12; 0,27</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,1</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,64; -6,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,62; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,78; -3,74</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,57%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,71; -9,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 4,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,44; -4,84</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,84</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; -8,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,93; -5,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,28; -8,78</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,39%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,03; -10,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,87; -7,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,28; -10,74</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,75</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,78; -5,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; -8,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,9; -9,24</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,59%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,5; -6,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; -10,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,93; -10,63</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,97</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,22</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,58</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,17; -17,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,87; -11,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,25; -16,01</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,53%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,14; -18,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,74; -12,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,18; -16,93</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,12</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,51</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,0; -15,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,79; -7,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,69; -10,9</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,66%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,44%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,94%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,65; -16,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,16; -7,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,11; -11,2</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,19</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,2; -10,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; -7,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,76; -9,29</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,07%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,95; -12,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,39; -8,31</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; -10,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B14_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 7,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,27; -2,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 12,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,16; -2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 0,27</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,64; -6,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 3,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -3,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,57%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,71; -9,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,44; -4,84</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,84</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,64; -8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,93; -5,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -8,78</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -10,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,87; -7,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -10,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,75</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,78; -5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,32; -8,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -9,24</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,5; -6,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -10,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,93; -10,63</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-21,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-15,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-18,58</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -17,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -11,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,25; -16,01</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-22,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-19,53%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,14; -18,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,74; -12,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,18; -16,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-18,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-12,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-14,51</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-21,0; -15,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,79; -7,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -10,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-12,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-14,94%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,65; -16,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -7,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -11,2</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-13,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -10,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -7,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -9,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-13,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -12,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -8,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -10,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B14_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -930,7 +930,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1216,14 +1216,111 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
